--- a/en/Sample_Project/Source_Code/proman-project/proman-jmeter/src/test/resources/WA10201/001_register_project/db_dump/EXPECTED.xlsx
+++ b/en/Sample_Project/Source_Code/proman-project/proman-jmeter/src/test/resources/WA10201/001_register_project/db_dump/EXPECTED.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\n\en\Sample_Project\Source_Code\proman-project\proman-jmeter\src\test\resources\WA10201\001_register_project\db_dump\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85121960-EFBD-47BB-A5EF-9C059285DB68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF95173-2730-4F57-9CFB-57917D6EFA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="37260" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25380" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="89" r:id="rId1"/>
